--- a/Packet/PacketData/Enemy.xlsx
+++ b/Packet/PacketData/Enemy.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="エネミー出現" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="エネミーデータ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="エネミー出現" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,11 +21,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
   <si>
+    <t xml:space="preserve">EnemyData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PositionPack.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PositionPack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketEnemyEntry</t>
   </si>
   <si>
@@ -40,22 +62,13 @@
     <t xml:space="preserve">Packet</t>
   </si>
   <si>
-    <t xml:space="preserve">$INCLUDE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PositionPack.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$MEMBER$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PositionPack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">座標</t>
+    <t xml:space="preserve">EnemyData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ</t>
   </si>
 </sst>
 </file>
@@ -165,13 +178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -200,37 +213,21 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -241,4 +238,87 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Enemy.xlsx
+++ b/Packet/PacketData/Enemy.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="エネミーデータ" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="エネミー出現" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="エネミーリスト" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="エネミー出現" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -47,22 +48,40 @@
     <t xml:space="preserve">座標</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketEnemyList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$PACKET_ID$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnemyList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$BASE_CLASS_NAME$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnemyData.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexArray&lt;EnemyData&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketEnemyEntry</t>
   </si>
   <si>
-    <t xml:space="preserve">$PACKET_ID$</t>
-  </si>
-  <si>
     <t xml:space="preserve">EnemyEntry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$BASE_CLASS_NAME$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnemyData.h</t>
   </si>
   <si>
     <t xml:space="preserve">Data</t>
@@ -184,7 +203,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -245,13 +264,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -291,16 +310,107 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,7 +425,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Enemy.xlsx
+++ b/Packet/PacketData/Enemy.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">Packet</t>
   </si>
   <si>
-    <t xml:space="preserve">FlexArray.h</t>
+    <t xml:space="preserve">util/FlexArray.h</t>
   </si>
   <si>
     <t xml:space="preserve">EnemyData.h</t>
@@ -203,7 +203,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -267,10 +267,10 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -361,7 +361,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>

--- a/Packet/PacketData/Enemy.xlsx
+++ b/Packet/PacketData/Enemy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="エネミーデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">PositionPack</t>
@@ -197,13 +206,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -240,13 +249,27 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -266,11 +289,11 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -281,23 +304,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,7 +336,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,13 +344,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,7 +384,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -372,23 +395,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
